--- a/Tables/tables/T3_structure_performance.xlsx
+++ b/Tables/tables/T3_structure_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberic/Desktop/Pro/RouskinLab/papers/Main_Paper/DL_paper_figures/Tables/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B8DC8-784A-1F47-B67C-1E92CDA60329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD387F-B086-2E44-A4E8-24AE7CB5881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25100" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t>model</t>
   </si>
   <si>
-    <t>RNAformer</t>
-  </si>
-  <si>
     <t>SPOT-RNA</t>
   </si>
   <si>
-    <t>UFold</t>
-  </si>
-  <si>
-    <t>eFold (no finetuning)</t>
+    <t>UFold (original)</t>
+  </si>
+  <si>
+    <t>UFold (re-trained)</t>
+  </si>
+  <si>
+    <t>eFold (pre-trained)</t>
   </si>
   <si>
     <t>eFold</t>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,73 +109,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF65CB5E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90D743"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20A486"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98D83E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3ABA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F978B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E9B8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F968B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33638D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF46327E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF472E7C"/>
+        <fgColor rgb="FFA8DB34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E21B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DD2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EC36B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EC962"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50C46A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AC16D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F9A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF23A983"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A788E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF365C8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31668E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BD646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAE51A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0DD2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95D840"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBADE28"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,19 +217,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2E21B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2DD2D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4CC26C"/>
+        <fgColor rgb="FF25AC82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF27AD81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF365D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E4989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C4F8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2DF23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDE11D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDF26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF28AE80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF37B878"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2DB27D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42BE71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46C06F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22A785"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF306A8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF297A8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5E21A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF21A585"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,103 +331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4AC16D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F9A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF23A983"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2A788E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF365C8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF31668E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BD646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAE51A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB0DD2F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95D840"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBADE28"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF25AC82"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF27AD81"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF365D8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3E4989"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C4F8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8DE29"/>
+        <fgColor rgb="FF24878E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF25858E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0DF25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,67 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF32B67A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF28AE80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF40BD72"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20938C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2B758E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF277E8E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E219"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22A884"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34B679"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF63CB5F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF56C667"/>
+        <fgColor rgb="FF2AB07F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF54C568"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6CCD5A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1E9C89"/>
+        <fgColor rgb="FF228C8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF218F8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -470,75 +464,75 @@
     <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,43 +542,34 @@
     <xf numFmtId="2" fontId="2" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -928,13 +913,12 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="A1:M8"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="13" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1011,40 +995,40 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.7401854654742499</v>
+        <v>0.85407524100491694</v>
       </c>
       <c r="C4" s="4">
-        <v>0.95963914647441484</v>
+        <v>0.92473759630630759</v>
       </c>
       <c r="D4" s="5">
-        <v>0.81656824169533981</v>
+        <v>0.87293582919617774</v>
       </c>
       <c r="E4" s="6">
-        <v>0.54184267292972765</v>
+        <v>0.69408364280594037</v>
       </c>
       <c r="F4" s="7">
-        <v>0.8289682793326254</v>
+        <v>0.72660093587412056</v>
       </c>
       <c r="G4" s="8">
-        <v>0.64641440546536577</v>
+        <v>0.69504630253249533</v>
       </c>
       <c r="H4" s="9">
-        <v>0.48178258072584867</v>
+        <v>0.68305478692054744</v>
       </c>
       <c r="I4" s="10">
-        <v>0.49905055426061151</v>
+        <v>0.49629315882921221</v>
       </c>
       <c r="J4" s="11">
-        <v>0.48006476536393172</v>
+        <v>0.56481565944850443</v>
       </c>
       <c r="K4" s="12">
-        <v>0.2448753982782364</v>
+        <v>0.33881191462278359</v>
       </c>
       <c r="L4" s="13">
-        <v>5.4908669988314313E-2</v>
+        <v>0.21414584194620451</v>
       </c>
       <c r="M4" s="14">
-        <v>4.5462523897488907E-2</v>
+        <v>0.25907036624848839</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1052,40 +1036,40 @@
         <v>10</v>
       </c>
       <c r="B5" s="15">
-        <v>0.85282831471622655</v>
+        <v>0.81025983207467678</v>
       </c>
       <c r="C5" s="16">
-        <v>0.92289233805456949</v>
+        <v>0.96503088658346847</v>
       </c>
       <c r="D5" s="17">
-        <v>0.87142009187615321</v>
+        <v>0.86977506958056183</v>
       </c>
       <c r="E5" s="18">
-        <v>0.68895417041231144</v>
+        <v>0.82521732203509712</v>
       </c>
       <c r="F5" s="19">
-        <v>0.72038189176044687</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.68932443063762883</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.68305478692054744</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0.49629315882921221</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0.56481565944850443</v>
+        <v>0.88659418214217689</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.85151540817519822</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.57792022526264186</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.58739823177456851</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.57862800024449823</v>
       </c>
       <c r="K5" s="23">
-        <v>0.33881191462278359</v>
+        <v>0.21894082086610381</v>
       </c>
       <c r="L5" s="24">
-        <v>0.21414584194620451</v>
+        <v>0.14386106443513799</v>
       </c>
       <c r="M5" s="25">
-        <v>0.25907036624848839</v>
+        <v>0.16299531469121581</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1093,122 +1077,122 @@
         <v>11</v>
       </c>
       <c r="B6" s="26">
-        <v>0.80926631012059358</v>
+        <v>0.89790420733755161</v>
       </c>
       <c r="C6" s="27">
-        <v>0.96284046594348471</v>
+        <v>0.91578366435491121</v>
       </c>
       <c r="D6" s="28">
-        <v>0.86812032427574171</v>
+        <v>0.89053194161871785</v>
       </c>
       <c r="E6" s="29">
-        <v>0.82445320335997119</v>
+        <v>0.58755214477140316</v>
       </c>
       <c r="F6" s="30">
-        <v>0.88421792099713181</v>
+        <v>0.6359037410637195</v>
       </c>
       <c r="G6" s="31">
-        <v>0.84994587030946867</v>
+        <v>0.60704128811611224</v>
       </c>
       <c r="H6" s="32">
-        <v>0.57792022526264186</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0.58739823177456851</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0.57862800024449823</v>
+        <v>0.66631850451231001</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.6992155037820339</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.67486215457320209</v>
       </c>
       <c r="K6" s="34">
-        <v>0.21894082086610381</v>
+        <v>0.55458914190530773</v>
       </c>
       <c r="L6" s="35">
-        <v>0.14386106443513799</v>
+        <v>0.27617861268421012</v>
       </c>
       <c r="M6" s="36">
-        <v>0.16299531469121581</v>
+        <v>0.34751974791288381</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="28">
-        <v>0.86901351840149421</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.9257083888450971</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0.88372880805062171</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0.57071741158947631</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.6255180173314987</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0.59160150828103453</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.64702645987272267</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.68778801653534172</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0.66141147911548615</v>
-      </c>
-      <c r="K7" s="42">
-        <v>0.46677426866122662</v>
-      </c>
-      <c r="L7" s="43">
-        <v>0.32821480142218729</v>
-      </c>
-      <c r="M7" s="44">
-        <v>0.3667584444795336</v>
+      <c r="B7" s="5">
+        <v>0.87212369504948739</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.92754332581669174</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.88600980200817891</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.54705551222895299</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0.6358834064415636</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.58498591735865091</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0.63804608136415486</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0.71889328658580776</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.67416364923119543</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0.40867890020211539</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0.39860368172327681</v>
+      </c>
+      <c r="M7" s="42">
+        <v>0.40043126245339711</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45">
-        <v>0.86901474228927067</v>
-      </c>
-      <c r="C8" s="46">
-        <v>0.93164909746139457</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0.8869665767465319</v>
-      </c>
-      <c r="E8" s="47">
-        <v>0.55948801208594245</v>
-      </c>
-      <c r="F8" s="48">
-        <v>0.62937661261821209</v>
-      </c>
-      <c r="G8" s="40">
-        <v>0.58919475743441063</v>
-      </c>
-      <c r="H8" s="49">
-        <v>0.68855322077870373</v>
-      </c>
-      <c r="I8" s="50">
-        <v>0.73613431751728053</v>
-      </c>
-      <c r="J8" s="51">
-        <v>0.70867135375738144</v>
-      </c>
-      <c r="K8" s="52">
-        <v>0.45791440904140468</v>
-      </c>
-      <c r="L8" s="53">
-        <v>0.50570869445800781</v>
-      </c>
-      <c r="M8" s="54">
-        <v>0.47725523114204399</v>
+      <c r="B8" s="38">
+        <v>0.8882760968006832</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.92792220027199401</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.89404354830023269</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.5723516663959255</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.63630682148982287</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.5995677090034397</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.70372429266572001</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0.75317925848066802</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0.72570180371403692</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0.45861082474390658</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0.43153797090053558</v>
+      </c>
+      <c r="M8" s="51">
+        <v>0.44234284311532968</v>
       </c>
     </row>
   </sheetData>
